--- a/2.lap-trinh-huong-doi-tuong/5.Inheritance.xlsx
+++ b/2.lap-trinh-huong-doi-tuong/5.Inheritance.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\2.lap-trinh-huong-doi-tuong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAC1777-8B0D-4E1B-8B09-7AF9FAF2970C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9613F3E8-AB89-43FB-875E-FA31FB059E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33090" yWindow="1965" windowWidth="24150" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33090" yWindow="1965" windowWidth="24150" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inheritance" sheetId="1" r:id="rId1"/>
+    <sheet name="Final class" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="126">
   <si>
     <t>java_training</t>
     <phoneticPr fontId="1"/>
@@ -928,6 +929,437 @@
         <scheme val="minor"/>
       </rPr>
       <t>c thi</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớc khai báo của lớp. Khi đánh dấu một lớp là final, nó không thể đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc kế thừa bởi các lớp con.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trong Java, có m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>t s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> cách đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> ngăn ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ặ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n vi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ừ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>a t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ừ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>t l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>p. Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ừ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>a trong Java có th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ụ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ừ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> khóa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>final</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -1115,7 +1547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1126,11 +1558,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1418,6 +1849,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>389339</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>94909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72826DF1-AEE6-1708-685B-24BE57D62D4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="1028700"/>
+          <a:ext cx="9485714" cy="2723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1683,7 +2163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AA296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A267" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S273" sqref="S273"/>
     </sheetView>
   </sheetViews>
@@ -1808,823 +2288,160 @@
       <c r="B15" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
       <c r="T15" s="5"/>
     </row>
     <row r="16" spans="2:20">
       <c r="B16" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
       <c r="T16" s="5"/>
     </row>
     <row r="17" spans="2:20">
       <c r="B17" s="4"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="2:20">
       <c r="B18" s="4"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
       <c r="T18" s="5"/>
     </row>
     <row r="19" spans="2:20">
       <c r="B19" s="4"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="2:20">
       <c r="B20" s="4"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="2:20">
       <c r="B21" s="4"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="2:20">
       <c r="B22" s="4"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="2:20">
       <c r="B23" s="4"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="2:20">
       <c r="B24" s="4"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
       <c r="T24" s="5"/>
     </row>
     <row r="25" spans="2:20">
       <c r="B25" s="4"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
       <c r="T25" s="5"/>
     </row>
     <row r="26" spans="2:20">
       <c r="B26" s="4"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
       <c r="T26" s="5"/>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="4"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="2:20">
       <c r="B28" s="4"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
       <c r="T28" s="5"/>
     </row>
     <row r="29" spans="2:20">
       <c r="B29" s="4"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
       <c r="T29" s="5"/>
     </row>
     <row r="30" spans="2:20">
       <c r="B30" s="4"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
       <c r="T30" s="5"/>
     </row>
     <row r="31" spans="2:20">
       <c r="B31" s="4"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
       <c r="T31" s="5"/>
     </row>
     <row r="32" spans="2:20">
       <c r="B32" s="4"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
       <c r="T32" s="5"/>
     </row>
     <row r="33" spans="2:20">
       <c r="B33" s="4"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
       <c r="T33" s="5"/>
     </row>
     <row r="34" spans="2:20">
       <c r="B34" s="4"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
       <c r="T34" s="5"/>
     </row>
     <row r="35" spans="2:20">
       <c r="B35" s="4"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
       <c r="T35" s="5"/>
     </row>
     <row r="36" spans="2:20">
       <c r="B36" s="4"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
       <c r="T36" s="5"/>
     </row>
     <row r="37" spans="2:20">
       <c r="B37" s="4"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
       <c r="T37" s="5"/>
     </row>
     <row r="38" spans="2:20">
       <c r="B38" s="4"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
       <c r="T38" s="5"/>
     </row>
     <row r="39" spans="2:20">
       <c r="B39" s="4"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
       <c r="T39" s="5"/>
     </row>
     <row r="40" spans="2:20">
       <c r="B40" s="4"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
       <c r="T40" s="5"/>
     </row>
     <row r="41" spans="2:20">
       <c r="B41" s="4"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
       <c r="T41" s="5"/>
     </row>
     <row r="42" spans="2:20">
       <c r="B42" s="4"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
       <c r="T42" s="5"/>
     </row>
     <row r="43" spans="2:20">
       <c r="B43" s="4"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
       <c r="T43" s="5"/>
     </row>
     <row r="44" spans="2:20">
       <c r="B44" s="4"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
       <c r="T44" s="5"/>
     </row>
     <row r="45" spans="2:20">
       <c r="B45" s="4"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
       <c r="T45" s="5"/>
     </row>
     <row r="46" spans="2:20">
       <c r="B46" s="4"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
       <c r="T46" s="5"/>
     </row>
     <row r="47" spans="2:20">
       <c r="B47" s="4"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
       <c r="T47" s="5"/>
     </row>
     <row r="48" spans="2:20">
       <c r="B48" s="4"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
       <c r="T48" s="5"/>
     </row>
     <row r="49" spans="2:20">
       <c r="B49" s="4"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
       <c r="T49" s="5"/>
     </row>
     <row r="50" spans="2:20">
       <c r="B50" s="4"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
       <c r="T50" s="5"/>
     </row>
     <row r="51" spans="2:20">
       <c r="B51" s="4"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
       <c r="T51" s="5"/>
     </row>
     <row r="52" spans="2:20">
       <c r="B52" s="4"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
       <c r="T52" s="5"/>
     </row>
     <row r="53" spans="2:20">
       <c r="B53" s="4"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
       <c r="T53" s="5"/>
     </row>
     <row r="54" spans="2:20">
@@ -2654,725 +2471,660 @@
       </c>
     </row>
     <row r="58" spans="2:20">
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
       <c r="G58" s="2"/>
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="2:20">
-      <c r="B59" s="13"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="10"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="2:20">
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="10"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
       <c r="H60" s="5"/>
     </row>
     <row r="61" spans="2:20">
-      <c r="B61" s="13"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="10"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
       <c r="H61" s="5"/>
     </row>
     <row r="62" spans="2:20">
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="10"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
       <c r="H62" s="5"/>
     </row>
     <row r="63" spans="2:20">
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="10"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
       <c r="H63" s="5"/>
     </row>
     <row r="64" spans="2:20">
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="10"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
       <c r="H64" s="5"/>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="10"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
       <c r="H65" s="5"/>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="10"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
       <c r="H66" s="5"/>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="10"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
       <c r="H67" s="5"/>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="10"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
       <c r="H68" s="5"/>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="10"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
       <c r="H69" s="5"/>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="10"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
       <c r="H70" s="5"/>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="10"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
       <c r="H71" s="5"/>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="10"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
       <c r="H72" s="5"/>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="10"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
       <c r="H73" s="5"/>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="10"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
       <c r="H74" s="5"/>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="10"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
       <c r="H75" s="5"/>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="10"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
       <c r="H76" s="5"/>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="10"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
       <c r="H77" s="5"/>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="10"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
       <c r="H78" s="5"/>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="10"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
       <c r="H79" s="5"/>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="10"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
       <c r="H80" s="5"/>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="10"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
       <c r="H81" s="5"/>
     </row>
     <row r="82" spans="2:8">
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="10"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
       <c r="H82" s="5"/>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="10"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
       <c r="H83" s="5"/>
     </row>
     <row r="84" spans="2:8">
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="10"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
       <c r="H84" s="5"/>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="10"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
       <c r="H85" s="5"/>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="10"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
       <c r="H86" s="5"/>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="10"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
       <c r="H87" s="5"/>
     </row>
     <row r="88" spans="2:8">
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="10"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
       <c r="H88" s="5"/>
     </row>
     <row r="89" spans="2:8">
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="10"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
       <c r="H89" s="5"/>
     </row>
     <row r="90" spans="2:8">
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="10"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
       <c r="H90" s="5"/>
     </row>
     <row r="91" spans="2:8">
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="10"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
       <c r="H91" s="5"/>
     </row>
     <row r="92" spans="2:8">
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="10"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
       <c r="H92" s="5"/>
     </row>
     <row r="93" spans="2:8">
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="10"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
       <c r="H93" s="5"/>
     </row>
     <row r="94" spans="2:8">
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="10"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
       <c r="H94" s="5"/>
     </row>
     <row r="95" spans="2:8">
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="10"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
       <c r="H95" s="5"/>
     </row>
     <row r="96" spans="2:8">
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="10"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
       <c r="H96" s="5"/>
     </row>
     <row r="97" spans="2:8">
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="10"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
       <c r="H97" s="5"/>
     </row>
     <row r="98" spans="2:8">
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="10"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
       <c r="H98" s="5"/>
     </row>
     <row r="99" spans="2:8">
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="10"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
       <c r="H99" s="5"/>
     </row>
     <row r="100" spans="2:8">
-      <c r="B100" s="13" t="s">
+      <c r="B100" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="10"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
       <c r="H100" s="5"/>
     </row>
     <row r="101" spans="2:8">
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="10"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
       <c r="H101" s="5"/>
     </row>
     <row r="102" spans="2:8">
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="10"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
       <c r="H102" s="5"/>
     </row>
     <row r="103" spans="2:8">
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="10"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
       <c r="H103" s="5"/>
     </row>
     <row r="104" spans="2:8">
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="10"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
       <c r="H104" s="5"/>
     </row>
     <row r="105" spans="2:8">
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="10"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
       <c r="H105" s="5"/>
     </row>
     <row r="106" spans="2:8">
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="10"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
       <c r="H106" s="5"/>
     </row>
     <row r="107" spans="2:8">
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="10"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
       <c r="H107" s="5"/>
     </row>
     <row r="108" spans="2:8">
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="10"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
       <c r="H108" s="5"/>
     </row>
     <row r="109" spans="2:8">
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="10"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
       <c r="H109" s="5"/>
     </row>
     <row r="110" spans="2:8">
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="10"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
       <c r="H110" s="5"/>
     </row>
     <row r="111" spans="2:8">
-      <c r="B111" s="13" t="s">
+      <c r="B111" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="10"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
       <c r="H111" s="5"/>
     </row>
     <row r="112" spans="2:8">
-      <c r="B112" s="13" t="s">
+      <c r="B112" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="10"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
       <c r="H112" s="5"/>
     </row>
     <row r="113" spans="1:25">
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="10"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
       <c r="H113" s="5"/>
     </row>
     <row r="114" spans="1:25">
-      <c r="B114" s="13" t="s">
+      <c r="B114" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="10"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
       <c r="H114" s="5"/>
     </row>
     <row r="115" spans="1:25">
-      <c r="B115" s="13" t="s">
+      <c r="B115" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="10"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
       <c r="H115" s="5"/>
     </row>
     <row r="116" spans="1:25">
-      <c r="B116" s="13" t="s">
+      <c r="B116" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="10"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
       <c r="H116" s="5"/>
     </row>
     <row r="117" spans="1:25">
-      <c r="B117" s="13" t="s">
+      <c r="B117" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="10"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
       <c r="H117" s="5"/>
     </row>
     <row r="118" spans="1:25">
-      <c r="B118" s="13" t="s">
+      <c r="B118" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="10"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
       <c r="H118" s="5"/>
     </row>
     <row r="119" spans="1:25">
-      <c r="B119" s="13" t="s">
+      <c r="B119" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="10"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
       <c r="H119" s="5"/>
     </row>
     <row r="120" spans="1:25">
-      <c r="B120" s="13" t="s">
+      <c r="B120" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="10"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
       <c r="H120" s="5"/>
     </row>
     <row r="121" spans="1:25">
-      <c r="B121" s="13" t="s">
+      <c r="B121" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="10"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
       <c r="H121" s="5"/>
     </row>
     <row r="122" spans="1:25">
-      <c r="B122" s="13" t="s">
+      <c r="B122" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="10"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
       <c r="H122" s="5"/>
     </row>
     <row r="123" spans="1:25">
-      <c r="B123" s="13" t="s">
+      <c r="B123" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="10"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
       <c r="H123" s="5"/>
     </row>
     <row r="124" spans="1:25">
@@ -3422,51 +3174,12 @@
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="3"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="10"/>
-      <c r="K128" s="10"/>
-      <c r="L128" s="10"/>
-      <c r="M128" s="10"/>
-      <c r="N128" s="10"/>
-      <c r="O128" s="10"/>
-      <c r="P128" s="10"/>
-      <c r="Q128" s="10"/>
-      <c r="R128" s="10"/>
-      <c r="S128" s="10"/>
-      <c r="T128" s="10"/>
-      <c r="U128" s="10"/>
-      <c r="V128" s="10"/>
-      <c r="W128" s="10"/>
-      <c r="X128" s="10"/>
       <c r="Y128" s="5"/>
     </row>
     <row r="129" spans="1:25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
       <c r="F129" s="5"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="10"/>
-      <c r="K129" s="10"/>
-      <c r="L129" s="10"/>
-      <c r="M129" s="10"/>
-      <c r="N129" s="10"/>
-      <c r="O129" s="10"/>
-      <c r="P129" s="10"/>
-      <c r="Q129" s="10"/>
-      <c r="R129" s="10"/>
-      <c r="S129" s="10"/>
-      <c r="T129" s="10"/>
-      <c r="U129" s="10"/>
-      <c r="V129" s="10"/>
-      <c r="W129" s="10"/>
-      <c r="X129" s="10"/>
       <c r="Y129" s="5"/>
     </row>
     <row r="130" spans="1:25">
@@ -3474,55 +3187,13 @@
       <c r="B130" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
       <c r="F130" s="5"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="10"/>
-      <c r="K130" s="10"/>
-      <c r="L130" s="10"/>
-      <c r="M130" s="10"/>
-      <c r="N130" s="10"/>
-      <c r="O130" s="10"/>
-      <c r="P130" s="10"/>
-      <c r="Q130" s="10"/>
-      <c r="R130" s="10"/>
-      <c r="S130" s="10"/>
-      <c r="T130" s="10"/>
-      <c r="U130" s="10"/>
-      <c r="V130" s="10"/>
-      <c r="W130" s="10"/>
-      <c r="X130" s="10"/>
       <c r="Y130" s="5"/>
     </row>
     <row r="131" spans="1:25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
       <c r="F131" s="5"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
-      <c r="I131" s="10"/>
-      <c r="J131" s="10"/>
-      <c r="K131" s="10"/>
-      <c r="L131" s="10"/>
-      <c r="M131" s="10"/>
-      <c r="N131" s="10"/>
-      <c r="O131" s="10"/>
-      <c r="P131" s="10"/>
-      <c r="Q131" s="10"/>
-      <c r="R131" s="10"/>
-      <c r="S131" s="10"/>
-      <c r="T131" s="10"/>
-      <c r="U131" s="10"/>
-      <c r="V131" s="10"/>
-      <c r="W131" s="10"/>
-      <c r="X131" s="10"/>
       <c r="Y131" s="5"/>
     </row>
     <row r="132" spans="1:25">
@@ -3530,28 +3201,7 @@
       <c r="B132" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C132" s="10"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="10"/>
       <c r="F132" s="5"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="10"/>
-      <c r="I132" s="10"/>
-      <c r="J132" s="10"/>
-      <c r="K132" s="10"/>
-      <c r="L132" s="10"/>
-      <c r="M132" s="10"/>
-      <c r="N132" s="10"/>
-      <c r="O132" s="10"/>
-      <c r="P132" s="10"/>
-      <c r="Q132" s="10"/>
-      <c r="R132" s="10"/>
-      <c r="S132" s="10"/>
-      <c r="T132" s="10"/>
-      <c r="U132" s="10"/>
-      <c r="V132" s="10"/>
-      <c r="W132" s="10"/>
-      <c r="X132" s="10"/>
       <c r="Y132" s="5"/>
     </row>
     <row r="133" spans="1:25">
@@ -3559,28 +3209,7 @@
       <c r="B133" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
       <c r="F133" s="5"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="10"/>
-      <c r="I133" s="10"/>
-      <c r="J133" s="10"/>
-      <c r="K133" s="10"/>
-      <c r="L133" s="10"/>
-      <c r="M133" s="10"/>
-      <c r="N133" s="10"/>
-      <c r="O133" s="10"/>
-      <c r="P133" s="10"/>
-      <c r="Q133" s="10"/>
-      <c r="R133" s="10"/>
-      <c r="S133" s="10"/>
-      <c r="T133" s="10"/>
-      <c r="U133" s="10"/>
-      <c r="V133" s="10"/>
-      <c r="W133" s="10"/>
-      <c r="X133" s="10"/>
       <c r="Y133" s="5"/>
     </row>
     <row r="134" spans="1:25">
@@ -3588,28 +3217,7 @@
       <c r="B134" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="10"/>
       <c r="F134" s="5"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="10"/>
-      <c r="I134" s="10"/>
-      <c r="J134" s="10"/>
-      <c r="K134" s="10"/>
-      <c r="L134" s="10"/>
-      <c r="M134" s="10"/>
-      <c r="N134" s="10"/>
-      <c r="O134" s="10"/>
-      <c r="P134" s="10"/>
-      <c r="Q134" s="10"/>
-      <c r="R134" s="10"/>
-      <c r="S134" s="10"/>
-      <c r="T134" s="10"/>
-      <c r="U134" s="10"/>
-      <c r="V134" s="10"/>
-      <c r="W134" s="10"/>
-      <c r="X134" s="10"/>
       <c r="Y134" s="5"/>
     </row>
     <row r="135" spans="1:25">
@@ -3617,28 +3225,7 @@
       <c r="B135" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
       <c r="F135" s="5"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="10"/>
-      <c r="I135" s="10"/>
-      <c r="J135" s="10"/>
-      <c r="K135" s="10"/>
-      <c r="L135" s="10"/>
-      <c r="M135" s="10"/>
-      <c r="N135" s="10"/>
-      <c r="O135" s="10"/>
-      <c r="P135" s="10"/>
-      <c r="Q135" s="10"/>
-      <c r="R135" s="10"/>
-      <c r="S135" s="10"/>
-      <c r="T135" s="10"/>
-      <c r="U135" s="10"/>
-      <c r="V135" s="10"/>
-      <c r="W135" s="10"/>
-      <c r="X135" s="10"/>
       <c r="Y135" s="5"/>
     </row>
     <row r="136" spans="1:25">
@@ -3646,28 +3233,7 @@
       <c r="B136" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="10"/>
       <c r="F136" s="5"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="10"/>
-      <c r="I136" s="10"/>
-      <c r="J136" s="10"/>
-      <c r="K136" s="10"/>
-      <c r="L136" s="10"/>
-      <c r="M136" s="10"/>
-      <c r="N136" s="10"/>
-      <c r="O136" s="10"/>
-      <c r="P136" s="10"/>
-      <c r="Q136" s="10"/>
-      <c r="R136" s="10"/>
-      <c r="S136" s="10"/>
-      <c r="T136" s="10"/>
-      <c r="U136" s="10"/>
-      <c r="V136" s="10"/>
-      <c r="W136" s="10"/>
-      <c r="X136" s="10"/>
       <c r="Y136" s="5"/>
     </row>
     <row r="137" spans="1:25">
@@ -3675,55 +3241,13 @@
       <c r="B137" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10"/>
       <c r="F137" s="5"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="10"/>
-      <c r="I137" s="10"/>
-      <c r="J137" s="10"/>
-      <c r="K137" s="10"/>
-      <c r="L137" s="10"/>
-      <c r="M137" s="10"/>
-      <c r="N137" s="10"/>
-      <c r="O137" s="10"/>
-      <c r="P137" s="10"/>
-      <c r="Q137" s="10"/>
-      <c r="R137" s="10"/>
-      <c r="S137" s="10"/>
-      <c r="T137" s="10"/>
-      <c r="U137" s="10"/>
-      <c r="V137" s="10"/>
-      <c r="W137" s="10"/>
-      <c r="X137" s="10"/>
       <c r="Y137" s="5"/>
     </row>
     <row r="138" spans="1:25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="10"/>
       <c r="F138" s="5"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="10"/>
-      <c r="I138" s="10"/>
-      <c r="J138" s="10"/>
-      <c r="K138" s="10"/>
-      <c r="L138" s="10"/>
-      <c r="M138" s="10"/>
-      <c r="N138" s="10"/>
-      <c r="O138" s="10"/>
-      <c r="P138" s="10"/>
-      <c r="Q138" s="10"/>
-      <c r="R138" s="10"/>
-      <c r="S138" s="10"/>
-      <c r="T138" s="10"/>
-      <c r="U138" s="10"/>
-      <c r="V138" s="10"/>
-      <c r="W138" s="10"/>
-      <c r="X138" s="10"/>
       <c r="Y138" s="5"/>
     </row>
     <row r="139" spans="1:25">
@@ -3731,28 +3255,7 @@
       <c r="B139" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="10"/>
       <c r="F139" s="5"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="10"/>
-      <c r="I139" s="10"/>
-      <c r="J139" s="10"/>
-      <c r="K139" s="10"/>
-      <c r="L139" s="10"/>
-      <c r="M139" s="10"/>
-      <c r="N139" s="10"/>
-      <c r="O139" s="10"/>
-      <c r="P139" s="10"/>
-      <c r="Q139" s="10"/>
-      <c r="R139" s="10"/>
-      <c r="S139" s="10"/>
-      <c r="T139" s="10"/>
-      <c r="U139" s="10"/>
-      <c r="V139" s="10"/>
-      <c r="W139" s="10"/>
-      <c r="X139" s="10"/>
       <c r="Y139" s="5"/>
     </row>
     <row r="140" spans="1:25">
@@ -3760,28 +3263,7 @@
       <c r="B140" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
       <c r="F140" s="5"/>
-      <c r="G140" s="10"/>
-      <c r="H140" s="10"/>
-      <c r="I140" s="10"/>
-      <c r="J140" s="10"/>
-      <c r="K140" s="10"/>
-      <c r="L140" s="10"/>
-      <c r="M140" s="10"/>
-      <c r="N140" s="10"/>
-      <c r="O140" s="10"/>
-      <c r="P140" s="10"/>
-      <c r="Q140" s="10"/>
-      <c r="R140" s="10"/>
-      <c r="S140" s="10"/>
-      <c r="T140" s="10"/>
-      <c r="U140" s="10"/>
-      <c r="V140" s="10"/>
-      <c r="W140" s="10"/>
-      <c r="X140" s="10"/>
       <c r="Y140" s="5"/>
     </row>
     <row r="141" spans="1:25">
@@ -3789,55 +3271,13 @@
       <c r="B141" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10"/>
       <c r="F141" s="5"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
-      <c r="I141" s="10"/>
-      <c r="J141" s="10"/>
-      <c r="K141" s="10"/>
-      <c r="L141" s="10"/>
-      <c r="M141" s="10"/>
-      <c r="N141" s="10"/>
-      <c r="O141" s="10"/>
-      <c r="P141" s="10"/>
-      <c r="Q141" s="10"/>
-      <c r="R141" s="10"/>
-      <c r="S141" s="10"/>
-      <c r="T141" s="10"/>
-      <c r="U141" s="10"/>
-      <c r="V141" s="10"/>
-      <c r="W141" s="10"/>
-      <c r="X141" s="10"/>
       <c r="Y141" s="5"/>
     </row>
     <row r="142" spans="1:25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
       <c r="F142" s="5"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="10"/>
-      <c r="J142" s="10"/>
-      <c r="K142" s="10"/>
-      <c r="L142" s="10"/>
-      <c r="M142" s="10"/>
-      <c r="N142" s="10"/>
-      <c r="O142" s="10"/>
-      <c r="P142" s="10"/>
-      <c r="Q142" s="10"/>
-      <c r="R142" s="10"/>
-      <c r="S142" s="10"/>
-      <c r="T142" s="10"/>
-      <c r="U142" s="10"/>
-      <c r="V142" s="10"/>
-      <c r="W142" s="10"/>
-      <c r="X142" s="10"/>
       <c r="Y142" s="5"/>
     </row>
     <row r="143" spans="1:25">
@@ -3845,28 +3285,7 @@
       <c r="B143" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="10"/>
       <c r="F143" s="5"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="10"/>
-      <c r="I143" s="10"/>
-      <c r="J143" s="10"/>
-      <c r="K143" s="10"/>
-      <c r="L143" s="10"/>
-      <c r="M143" s="10"/>
-      <c r="N143" s="10"/>
-      <c r="O143" s="10"/>
-      <c r="P143" s="10"/>
-      <c r="Q143" s="10"/>
-      <c r="R143" s="10"/>
-      <c r="S143" s="10"/>
-      <c r="T143" s="10"/>
-      <c r="U143" s="10"/>
-      <c r="V143" s="10"/>
-      <c r="W143" s="10"/>
-      <c r="X143" s="10"/>
       <c r="Y143" s="5"/>
     </row>
     <row r="144" spans="1:25">
@@ -3876,429 +3295,66 @@
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="9"/>
-      <c r="G144" s="10"/>
-      <c r="H144" s="10"/>
-      <c r="I144" s="10"/>
-      <c r="J144" s="10"/>
-      <c r="K144" s="10"/>
-      <c r="L144" s="10"/>
-      <c r="M144" s="10"/>
-      <c r="N144" s="10"/>
-      <c r="O144" s="10"/>
-      <c r="P144" s="10"/>
-      <c r="Q144" s="10"/>
-      <c r="R144" s="10"/>
-      <c r="S144" s="10"/>
-      <c r="T144" s="10"/>
-      <c r="U144" s="10"/>
-      <c r="V144" s="10"/>
-      <c r="W144" s="10"/>
-      <c r="X144" s="10"/>
       <c r="Y144" s="5"/>
     </row>
     <row r="145" spans="1:25">
       <c r="A145" s="4"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="10"/>
-      <c r="I145" s="10"/>
-      <c r="J145" s="10"/>
-      <c r="K145" s="10"/>
-      <c r="L145" s="10"/>
-      <c r="M145" s="10"/>
-      <c r="N145" s="10"/>
-      <c r="O145" s="10"/>
-      <c r="P145" s="10"/>
-      <c r="Q145" s="10"/>
-      <c r="R145" s="10"/>
-      <c r="S145" s="10"/>
-      <c r="T145" s="10"/>
-      <c r="U145" s="10"/>
-      <c r="V145" s="10"/>
-      <c r="W145" s="10"/>
-      <c r="X145" s="10"/>
       <c r="Y145" s="5"/>
     </row>
     <row r="146" spans="1:25">
       <c r="A146" s="4"/>
-      <c r="B146" s="10"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
-      <c r="H146" s="10"/>
-      <c r="I146" s="10"/>
-      <c r="J146" s="10"/>
-      <c r="K146" s="10"/>
-      <c r="L146" s="10"/>
-      <c r="M146" s="10"/>
-      <c r="N146" s="10"/>
-      <c r="O146" s="10"/>
-      <c r="P146" s="10"/>
-      <c r="Q146" s="10"/>
-      <c r="R146" s="10"/>
-      <c r="S146" s="10"/>
-      <c r="T146" s="10"/>
-      <c r="U146" s="10"/>
-      <c r="V146" s="10"/>
-      <c r="W146" s="10"/>
-      <c r="X146" s="10"/>
       <c r="Y146" s="5"/>
     </row>
     <row r="147" spans="1:25">
       <c r="A147" s="4"/>
-      <c r="B147" s="10"/>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
-      <c r="H147" s="10"/>
-      <c r="I147" s="10"/>
-      <c r="J147" s="10"/>
-      <c r="K147" s="10"/>
-      <c r="L147" s="10"/>
-      <c r="M147" s="10"/>
-      <c r="N147" s="10"/>
-      <c r="O147" s="10"/>
-      <c r="P147" s="10"/>
-      <c r="Q147" s="10"/>
-      <c r="R147" s="10"/>
-      <c r="S147" s="10"/>
-      <c r="T147" s="10"/>
-      <c r="U147" s="10"/>
-      <c r="V147" s="10"/>
-      <c r="W147" s="10"/>
-      <c r="X147" s="10"/>
       <c r="Y147" s="5"/>
     </row>
     <row r="148" spans="1:25">
       <c r="A148" s="4"/>
-      <c r="B148" s="10"/>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
-      <c r="H148" s="10"/>
-      <c r="I148" s="10"/>
-      <c r="J148" s="10"/>
-      <c r="K148" s="10"/>
-      <c r="L148" s="10"/>
-      <c r="M148" s="10"/>
-      <c r="N148" s="10"/>
-      <c r="O148" s="10"/>
-      <c r="P148" s="10"/>
-      <c r="Q148" s="10"/>
-      <c r="R148" s="10"/>
-      <c r="S148" s="10"/>
-      <c r="T148" s="10"/>
-      <c r="U148" s="10"/>
-      <c r="V148" s="10"/>
-      <c r="W148" s="10"/>
-      <c r="X148" s="10"/>
       <c r="Y148" s="5"/>
     </row>
     <row r="149" spans="1:25">
       <c r="A149" s="4"/>
-      <c r="B149" s="10"/>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
-      <c r="H149" s="10"/>
-      <c r="I149" s="10"/>
-      <c r="J149" s="10"/>
-      <c r="K149" s="10"/>
-      <c r="L149" s="10"/>
-      <c r="M149" s="10"/>
-      <c r="N149" s="10"/>
-      <c r="O149" s="10"/>
-      <c r="P149" s="10"/>
-      <c r="Q149" s="10"/>
-      <c r="R149" s="10"/>
-      <c r="S149" s="10"/>
-      <c r="T149" s="10"/>
-      <c r="U149" s="10"/>
-      <c r="V149" s="10"/>
-      <c r="W149" s="10"/>
-      <c r="X149" s="10"/>
       <c r="Y149" s="5"/>
     </row>
     <row r="150" spans="1:25">
       <c r="A150" s="4"/>
-      <c r="B150" s="10"/>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10"/>
-      <c r="G150" s="10"/>
-      <c r="H150" s="10"/>
-      <c r="I150" s="10"/>
-      <c r="J150" s="10"/>
-      <c r="K150" s="10"/>
-      <c r="L150" s="10"/>
-      <c r="M150" s="10"/>
-      <c r="N150" s="10"/>
-      <c r="O150" s="10"/>
-      <c r="P150" s="10"/>
-      <c r="Q150" s="10"/>
-      <c r="R150" s="10"/>
-      <c r="S150" s="10"/>
-      <c r="T150" s="10"/>
-      <c r="U150" s="10"/>
-      <c r="V150" s="10"/>
-      <c r="W150" s="10"/>
-      <c r="X150" s="10"/>
       <c r="Y150" s="5"/>
     </row>
     <row r="151" spans="1:25">
       <c r="A151" s="4"/>
-      <c r="B151" s="10"/>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
-      <c r="H151" s="10"/>
-      <c r="I151" s="10"/>
-      <c r="J151" s="10"/>
-      <c r="K151" s="10"/>
-      <c r="L151" s="10"/>
-      <c r="M151" s="10"/>
-      <c r="N151" s="10"/>
-      <c r="O151" s="10"/>
-      <c r="P151" s="10"/>
-      <c r="Q151" s="10"/>
-      <c r="R151" s="10"/>
-      <c r="S151" s="10"/>
-      <c r="T151" s="10"/>
-      <c r="U151" s="10"/>
-      <c r="V151" s="10"/>
-      <c r="W151" s="10"/>
-      <c r="X151" s="10"/>
       <c r="Y151" s="5"/>
     </row>
     <row r="152" spans="1:25">
       <c r="A152" s="4"/>
-      <c r="B152" s="10"/>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
-      <c r="H152" s="10"/>
-      <c r="I152" s="10"/>
-      <c r="J152" s="10"/>
-      <c r="K152" s="10"/>
-      <c r="L152" s="10"/>
-      <c r="M152" s="10"/>
-      <c r="N152" s="10"/>
-      <c r="O152" s="10"/>
-      <c r="P152" s="10"/>
-      <c r="Q152" s="10"/>
-      <c r="R152" s="10"/>
-      <c r="S152" s="10"/>
-      <c r="T152" s="10"/>
-      <c r="U152" s="10"/>
-      <c r="V152" s="10"/>
-      <c r="W152" s="10"/>
-      <c r="X152" s="10"/>
       <c r="Y152" s="5"/>
     </row>
     <row r="153" spans="1:25">
       <c r="A153" s="4"/>
-      <c r="B153" s="10"/>
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
-      <c r="H153" s="10"/>
-      <c r="I153" s="10"/>
-      <c r="J153" s="10"/>
-      <c r="K153" s="10"/>
-      <c r="L153" s="10"/>
-      <c r="M153" s="10"/>
-      <c r="N153" s="10"/>
-      <c r="O153" s="10"/>
-      <c r="P153" s="10"/>
-      <c r="Q153" s="10"/>
-      <c r="R153" s="10"/>
-      <c r="S153" s="10"/>
-      <c r="T153" s="10"/>
-      <c r="U153" s="10"/>
-      <c r="V153" s="10"/>
-      <c r="W153" s="10"/>
-      <c r="X153" s="10"/>
       <c r="Y153" s="5"/>
     </row>
     <row r="154" spans="1:25">
       <c r="A154" s="4"/>
-      <c r="B154" s="10"/>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="10"/>
-      <c r="I154" s="10"/>
-      <c r="J154" s="10"/>
-      <c r="K154" s="10"/>
-      <c r="L154" s="10"/>
-      <c r="M154" s="10"/>
-      <c r="N154" s="10"/>
-      <c r="O154" s="10"/>
-      <c r="P154" s="10"/>
-      <c r="Q154" s="10"/>
-      <c r="R154" s="10"/>
-      <c r="S154" s="10"/>
-      <c r="T154" s="10"/>
-      <c r="U154" s="10"/>
-      <c r="V154" s="10"/>
-      <c r="W154" s="10"/>
-      <c r="X154" s="10"/>
       <c r="Y154" s="5"/>
     </row>
     <row r="155" spans="1:25">
       <c r="A155" s="4"/>
-      <c r="B155" s="10"/>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
-      <c r="H155" s="10"/>
-      <c r="I155" s="10"/>
-      <c r="J155" s="10"/>
-      <c r="K155" s="10"/>
-      <c r="L155" s="10"/>
-      <c r="M155" s="10"/>
-      <c r="N155" s="10"/>
-      <c r="O155" s="10"/>
-      <c r="P155" s="10"/>
-      <c r="Q155" s="10"/>
-      <c r="R155" s="10"/>
-      <c r="S155" s="10"/>
-      <c r="T155" s="10"/>
-      <c r="U155" s="10"/>
-      <c r="V155" s="10"/>
-      <c r="W155" s="10"/>
-      <c r="X155" s="10"/>
       <c r="Y155" s="5"/>
     </row>
     <row r="156" spans="1:25">
       <c r="A156" s="4"/>
-      <c r="B156" s="10"/>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
-      <c r="H156" s="10"/>
-      <c r="I156" s="10"/>
-      <c r="J156" s="10"/>
-      <c r="K156" s="10"/>
-      <c r="L156" s="10"/>
-      <c r="M156" s="10"/>
-      <c r="N156" s="10"/>
-      <c r="O156" s="10"/>
-      <c r="P156" s="10"/>
-      <c r="Q156" s="10"/>
-      <c r="R156" s="10"/>
-      <c r="S156" s="10"/>
-      <c r="T156" s="10"/>
-      <c r="U156" s="10"/>
-      <c r="V156" s="10"/>
-      <c r="W156" s="10"/>
-      <c r="X156" s="10"/>
       <c r="Y156" s="5"/>
     </row>
     <row r="157" spans="1:25">
       <c r="A157" s="4"/>
-      <c r="B157" s="10"/>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10"/>
-      <c r="G157" s="10"/>
-      <c r="H157" s="10"/>
-      <c r="I157" s="10"/>
-      <c r="J157" s="10"/>
-      <c r="K157" s="10"/>
-      <c r="L157" s="10"/>
-      <c r="M157" s="10"/>
-      <c r="N157" s="10"/>
-      <c r="O157" s="10"/>
-      <c r="P157" s="10"/>
-      <c r="Q157" s="10"/>
-      <c r="R157" s="10"/>
-      <c r="S157" s="10"/>
-      <c r="T157" s="10"/>
-      <c r="U157" s="10"/>
-      <c r="V157" s="10"/>
-      <c r="W157" s="10"/>
-      <c r="X157" s="10"/>
       <c r="Y157" s="5"/>
     </row>
     <row r="158" spans="1:25">
       <c r="A158" s="4"/>
-      <c r="B158" s="10"/>
-      <c r="C158" s="10"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="10"/>
-      <c r="F158" s="10"/>
-      <c r="G158" s="10"/>
-      <c r="H158" s="10"/>
-      <c r="I158" s="10"/>
-      <c r="J158" s="10"/>
-      <c r="K158" s="10"/>
-      <c r="L158" s="10"/>
-      <c r="M158" s="10"/>
-      <c r="N158" s="10"/>
-      <c r="O158" s="10"/>
-      <c r="P158" s="10"/>
-      <c r="Q158" s="10"/>
-      <c r="R158" s="10"/>
-      <c r="S158" s="10"/>
-      <c r="T158" s="10"/>
-      <c r="U158" s="10"/>
-      <c r="V158" s="10"/>
-      <c r="W158" s="10"/>
-      <c r="X158" s="10"/>
       <c r="Y158" s="5"/>
     </row>
     <row r="159" spans="1:25">
       <c r="A159" s="4"/>
-      <c r="B159" s="10"/>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
-      <c r="G159" s="10"/>
-      <c r="H159" s="10"/>
-      <c r="I159" s="10"/>
-      <c r="J159" s="10"/>
-      <c r="K159" s="10"/>
-      <c r="L159" s="10"/>
-      <c r="M159" s="10"/>
-      <c r="N159" s="10"/>
-      <c r="O159" s="10"/>
-      <c r="P159" s="10"/>
-      <c r="Q159" s="10"/>
-      <c r="R159" s="10"/>
-      <c r="S159" s="10"/>
-      <c r="T159" s="10"/>
-      <c r="U159" s="10"/>
-      <c r="V159" s="10"/>
-      <c r="W159" s="10"/>
-      <c r="X159" s="10"/>
       <c r="Y159" s="5"/>
     </row>
     <row r="160" spans="1:25">
@@ -4368,55 +3424,12 @@
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="3"/>
-      <c r="G164" s="10"/>
-      <c r="H164" s="10"/>
-      <c r="I164" s="10"/>
-      <c r="J164" s="10"/>
-      <c r="K164" s="10"/>
-      <c r="L164" s="10"/>
-      <c r="M164" s="10"/>
-      <c r="N164" s="10"/>
-      <c r="O164" s="10"/>
-      <c r="P164" s="10"/>
-      <c r="Q164" s="10"/>
-      <c r="R164" s="10"/>
-      <c r="S164" s="10"/>
-      <c r="T164" s="10"/>
-      <c r="U164" s="10"/>
-      <c r="V164" s="10"/>
-      <c r="W164" s="10"/>
-      <c r="X164" s="10"/>
-      <c r="Y164" s="10"/>
-      <c r="Z164" s="10"/>
       <c r="AA164" s="5"/>
     </row>
     <row r="165" spans="1:27">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
-      <c r="C165" s="10"/>
-      <c r="D165" s="10"/>
-      <c r="E165" s="10"/>
       <c r="F165" s="5"/>
-      <c r="G165" s="10"/>
-      <c r="H165" s="10"/>
-      <c r="I165" s="10"/>
-      <c r="J165" s="10"/>
-      <c r="K165" s="10"/>
-      <c r="L165" s="10"/>
-      <c r="M165" s="10"/>
-      <c r="N165" s="10"/>
-      <c r="O165" s="10"/>
-      <c r="P165" s="10"/>
-      <c r="Q165" s="10"/>
-      <c r="R165" s="10"/>
-      <c r="S165" s="10"/>
-      <c r="T165" s="10"/>
-      <c r="U165" s="10"/>
-      <c r="V165" s="10"/>
-      <c r="W165" s="10"/>
-      <c r="X165" s="10"/>
-      <c r="Y165" s="10"/>
-      <c r="Z165" s="10"/>
       <c r="AA165" s="5"/>
     </row>
     <row r="166" spans="1:27">
@@ -4424,30 +3437,7 @@
       <c r="B166" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C166" s="10"/>
-      <c r="D166" s="10"/>
-      <c r="E166" s="10"/>
       <c r="F166" s="5"/>
-      <c r="G166" s="10"/>
-      <c r="H166" s="10"/>
-      <c r="I166" s="10"/>
-      <c r="J166" s="10"/>
-      <c r="K166" s="10"/>
-      <c r="L166" s="10"/>
-      <c r="M166" s="10"/>
-      <c r="N166" s="10"/>
-      <c r="O166" s="10"/>
-      <c r="P166" s="10"/>
-      <c r="Q166" s="10"/>
-      <c r="R166" s="10"/>
-      <c r="S166" s="10"/>
-      <c r="T166" s="10"/>
-      <c r="U166" s="10"/>
-      <c r="V166" s="10"/>
-      <c r="W166" s="10"/>
-      <c r="X166" s="10"/>
-      <c r="Y166" s="10"/>
-      <c r="Z166" s="10"/>
       <c r="AA166" s="5"/>
     </row>
     <row r="167" spans="1:27">
@@ -4455,30 +3445,7 @@
       <c r="B167" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
-      <c r="E167" s="10"/>
       <c r="F167" s="5"/>
-      <c r="G167" s="10"/>
-      <c r="H167" s="10"/>
-      <c r="I167" s="10"/>
-      <c r="J167" s="10"/>
-      <c r="K167" s="10"/>
-      <c r="L167" s="10"/>
-      <c r="M167" s="10"/>
-      <c r="N167" s="10"/>
-      <c r="O167" s="10"/>
-      <c r="P167" s="10"/>
-      <c r="Q167" s="10"/>
-      <c r="R167" s="10"/>
-      <c r="S167" s="10"/>
-      <c r="T167" s="10"/>
-      <c r="U167" s="10"/>
-      <c r="V167" s="10"/>
-      <c r="W167" s="10"/>
-      <c r="X167" s="10"/>
-      <c r="Y167" s="10"/>
-      <c r="Z167" s="10"/>
       <c r="AA167" s="5"/>
     </row>
     <row r="168" spans="1:27">
@@ -4486,30 +3453,7 @@
       <c r="B168" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C168" s="10"/>
-      <c r="D168" s="10"/>
-      <c r="E168" s="10"/>
       <c r="F168" s="5"/>
-      <c r="G168" s="10"/>
-      <c r="H168" s="10"/>
-      <c r="I168" s="10"/>
-      <c r="J168" s="10"/>
-      <c r="K168" s="10"/>
-      <c r="L168" s="10"/>
-      <c r="M168" s="10"/>
-      <c r="N168" s="10"/>
-      <c r="O168" s="10"/>
-      <c r="P168" s="10"/>
-      <c r="Q168" s="10"/>
-      <c r="R168" s="10"/>
-      <c r="S168" s="10"/>
-      <c r="T168" s="10"/>
-      <c r="U168" s="10"/>
-      <c r="V168" s="10"/>
-      <c r="W168" s="10"/>
-      <c r="X168" s="10"/>
-      <c r="Y168" s="10"/>
-      <c r="Z168" s="10"/>
       <c r="AA168" s="5"/>
     </row>
     <row r="169" spans="1:27">
@@ -4517,30 +3461,7 @@
       <c r="B169" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C169" s="10"/>
-      <c r="D169" s="10"/>
-      <c r="E169" s="10"/>
       <c r="F169" s="5"/>
-      <c r="G169" s="10"/>
-      <c r="H169" s="10"/>
-      <c r="I169" s="10"/>
-      <c r="J169" s="10"/>
-      <c r="K169" s="10"/>
-      <c r="L169" s="10"/>
-      <c r="M169" s="10"/>
-      <c r="N169" s="10"/>
-      <c r="O169" s="10"/>
-      <c r="P169" s="10"/>
-      <c r="Q169" s="10"/>
-      <c r="R169" s="10"/>
-      <c r="S169" s="10"/>
-      <c r="T169" s="10"/>
-      <c r="U169" s="10"/>
-      <c r="V169" s="10"/>
-      <c r="W169" s="10"/>
-      <c r="X169" s="10"/>
-      <c r="Y169" s="10"/>
-      <c r="Z169" s="10"/>
       <c r="AA169" s="5"/>
     </row>
     <row r="170" spans="1:27">
@@ -4548,30 +3469,7 @@
       <c r="B170" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
-      <c r="E170" s="10"/>
       <c r="F170" s="5"/>
-      <c r="G170" s="10"/>
-      <c r="H170" s="10"/>
-      <c r="I170" s="10"/>
-      <c r="J170" s="10"/>
-      <c r="K170" s="10"/>
-      <c r="L170" s="10"/>
-      <c r="M170" s="10"/>
-      <c r="N170" s="10"/>
-      <c r="O170" s="10"/>
-      <c r="P170" s="10"/>
-      <c r="Q170" s="10"/>
-      <c r="R170" s="10"/>
-      <c r="S170" s="10"/>
-      <c r="T170" s="10"/>
-      <c r="U170" s="10"/>
-      <c r="V170" s="10"/>
-      <c r="W170" s="10"/>
-      <c r="X170" s="10"/>
-      <c r="Y170" s="10"/>
-      <c r="Z170" s="10"/>
       <c r="AA170" s="5"/>
     </row>
     <row r="171" spans="1:27">
@@ -4579,59 +3477,13 @@
       <c r="B171" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
-      <c r="E171" s="10"/>
       <c r="F171" s="5"/>
-      <c r="G171" s="10"/>
-      <c r="H171" s="10"/>
-      <c r="I171" s="10"/>
-      <c r="J171" s="10"/>
-      <c r="K171" s="10"/>
-      <c r="L171" s="10"/>
-      <c r="M171" s="10"/>
-      <c r="N171" s="10"/>
-      <c r="O171" s="10"/>
-      <c r="P171" s="10"/>
-      <c r="Q171" s="10"/>
-      <c r="R171" s="10"/>
-      <c r="S171" s="10"/>
-      <c r="T171" s="10"/>
-      <c r="U171" s="10"/>
-      <c r="V171" s="10"/>
-      <c r="W171" s="10"/>
-      <c r="X171" s="10"/>
-      <c r="Y171" s="10"/>
-      <c r="Z171" s="10"/>
       <c r="AA171" s="5"/>
     </row>
     <row r="172" spans="1:27">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
-      <c r="C172" s="10"/>
-      <c r="D172" s="10"/>
-      <c r="E172" s="10"/>
       <c r="F172" s="5"/>
-      <c r="G172" s="10"/>
-      <c r="H172" s="10"/>
-      <c r="I172" s="10"/>
-      <c r="J172" s="10"/>
-      <c r="K172" s="10"/>
-      <c r="L172" s="10"/>
-      <c r="M172" s="10"/>
-      <c r="N172" s="10"/>
-      <c r="O172" s="10"/>
-      <c r="P172" s="10"/>
-      <c r="Q172" s="10"/>
-      <c r="R172" s="10"/>
-      <c r="S172" s="10"/>
-      <c r="T172" s="10"/>
-      <c r="U172" s="10"/>
-      <c r="V172" s="10"/>
-      <c r="W172" s="10"/>
-      <c r="X172" s="10"/>
-      <c r="Y172" s="10"/>
-      <c r="Z172" s="10"/>
       <c r="AA172" s="5"/>
     </row>
     <row r="173" spans="1:27">
@@ -4639,30 +3491,7 @@
       <c r="B173" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C173" s="10"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="10"/>
       <c r="F173" s="5"/>
-      <c r="G173" s="10"/>
-      <c r="H173" s="10"/>
-      <c r="I173" s="10"/>
-      <c r="J173" s="10"/>
-      <c r="K173" s="10"/>
-      <c r="L173" s="10"/>
-      <c r="M173" s="10"/>
-      <c r="N173" s="10"/>
-      <c r="O173" s="10"/>
-      <c r="P173" s="10"/>
-      <c r="Q173" s="10"/>
-      <c r="R173" s="10"/>
-      <c r="S173" s="10"/>
-      <c r="T173" s="10"/>
-      <c r="U173" s="10"/>
-      <c r="V173" s="10"/>
-      <c r="W173" s="10"/>
-      <c r="X173" s="10"/>
-      <c r="Y173" s="10"/>
-      <c r="Z173" s="10"/>
       <c r="AA173" s="5"/>
     </row>
     <row r="174" spans="1:27">
@@ -4670,30 +3499,7 @@
       <c r="B174" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C174" s="10"/>
-      <c r="D174" s="10"/>
-      <c r="E174" s="10"/>
       <c r="F174" s="5"/>
-      <c r="G174" s="10"/>
-      <c r="H174" s="10"/>
-      <c r="I174" s="10"/>
-      <c r="J174" s="10"/>
-      <c r="K174" s="10"/>
-      <c r="L174" s="10"/>
-      <c r="M174" s="10"/>
-      <c r="N174" s="10"/>
-      <c r="O174" s="10"/>
-      <c r="P174" s="10"/>
-      <c r="Q174" s="10"/>
-      <c r="R174" s="10"/>
-      <c r="S174" s="10"/>
-      <c r="T174" s="10"/>
-      <c r="U174" s="10"/>
-      <c r="V174" s="10"/>
-      <c r="W174" s="10"/>
-      <c r="X174" s="10"/>
-      <c r="Y174" s="10"/>
-      <c r="Z174" s="10"/>
       <c r="AA174" s="5"/>
     </row>
     <row r="175" spans="1:27">
@@ -4701,30 +3507,7 @@
       <c r="B175" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C175" s="10"/>
-      <c r="D175" s="10"/>
-      <c r="E175" s="10"/>
       <c r="F175" s="5"/>
-      <c r="G175" s="10"/>
-      <c r="H175" s="10"/>
-      <c r="I175" s="10"/>
-      <c r="J175" s="10"/>
-      <c r="K175" s="10"/>
-      <c r="L175" s="10"/>
-      <c r="M175" s="10"/>
-      <c r="N175" s="10"/>
-      <c r="O175" s="10"/>
-      <c r="P175" s="10"/>
-      <c r="Q175" s="10"/>
-      <c r="R175" s="10"/>
-      <c r="S175" s="10"/>
-      <c r="T175" s="10"/>
-      <c r="U175" s="10"/>
-      <c r="V175" s="10"/>
-      <c r="W175" s="10"/>
-      <c r="X175" s="10"/>
-      <c r="Y175" s="10"/>
-      <c r="Z175" s="10"/>
       <c r="AA175" s="5"/>
     </row>
     <row r="176" spans="1:27">
@@ -4732,30 +3515,7 @@
       <c r="B176" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C176" s="10"/>
-      <c r="D176" s="10"/>
-      <c r="E176" s="10"/>
       <c r="F176" s="5"/>
-      <c r="G176" s="10"/>
-      <c r="H176" s="10"/>
-      <c r="I176" s="10"/>
-      <c r="J176" s="10"/>
-      <c r="K176" s="10"/>
-      <c r="L176" s="10"/>
-      <c r="M176" s="10"/>
-      <c r="N176" s="10"/>
-      <c r="O176" s="10"/>
-      <c r="P176" s="10"/>
-      <c r="Q176" s="10"/>
-      <c r="R176" s="10"/>
-      <c r="S176" s="10"/>
-      <c r="T176" s="10"/>
-      <c r="U176" s="10"/>
-      <c r="V176" s="10"/>
-      <c r="W176" s="10"/>
-      <c r="X176" s="10"/>
-      <c r="Y176" s="10"/>
-      <c r="Z176" s="10"/>
       <c r="AA176" s="5"/>
     </row>
     <row r="177" spans="1:27">
@@ -4765,26 +3525,6 @@
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
       <c r="F177" s="9"/>
-      <c r="G177" s="10"/>
-      <c r="H177" s="10"/>
-      <c r="I177" s="10"/>
-      <c r="J177" s="10"/>
-      <c r="K177" s="10"/>
-      <c r="L177" s="10"/>
-      <c r="M177" s="10"/>
-      <c r="N177" s="10"/>
-      <c r="O177" s="10"/>
-      <c r="P177" s="10"/>
-      <c r="Q177" s="10"/>
-      <c r="R177" s="10"/>
-      <c r="S177" s="10"/>
-      <c r="T177" s="10"/>
-      <c r="U177" s="10"/>
-      <c r="V177" s="10"/>
-      <c r="W177" s="10"/>
-      <c r="X177" s="10"/>
-      <c r="Y177" s="10"/>
-      <c r="Z177" s="10"/>
       <c r="AA177" s="5"/>
     </row>
     <row r="178" spans="1:27">
@@ -4835,1008 +3575,504 @@
     </row>
     <row r="183" spans="1:27">
       <c r="B183" s="4"/>
-      <c r="C183" s="10"/>
-      <c r="D183" s="10"/>
-      <c r="E183" s="10"/>
-      <c r="F183" s="10"/>
-      <c r="G183" s="10"/>
-      <c r="H183" s="10"/>
       <c r="I183" s="5"/>
     </row>
     <row r="184" spans="1:27">
       <c r="B184" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C184" s="10"/>
-      <c r="D184" s="10"/>
-      <c r="E184" s="10"/>
-      <c r="F184" s="10"/>
-      <c r="G184" s="10"/>
-      <c r="H184" s="10"/>
       <c r="I184" s="5"/>
     </row>
     <row r="185" spans="1:27">
       <c r="B185" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C185" s="10"/>
-      <c r="D185" s="10"/>
-      <c r="E185" s="10"/>
-      <c r="F185" s="10"/>
-      <c r="G185" s="10"/>
-      <c r="H185" s="10"/>
       <c r="I185" s="5"/>
     </row>
     <row r="186" spans="1:27">
       <c r="B186" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C186" s="10"/>
-      <c r="D186" s="10"/>
-      <c r="E186" s="10"/>
-      <c r="F186" s="10"/>
-      <c r="G186" s="10"/>
-      <c r="H186" s="10"/>
       <c r="I186" s="5"/>
     </row>
     <row r="187" spans="1:27">
       <c r="B187" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C187" s="10"/>
-      <c r="D187" s="10"/>
-      <c r="E187" s="10"/>
-      <c r="F187" s="10"/>
-      <c r="G187" s="10"/>
-      <c r="H187" s="10"/>
       <c r="I187" s="5"/>
     </row>
     <row r="188" spans="1:27">
       <c r="B188" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C188" s="10"/>
-      <c r="D188" s="10"/>
-      <c r="E188" s="10"/>
-      <c r="F188" s="10"/>
-      <c r="G188" s="10"/>
-      <c r="H188" s="10"/>
       <c r="I188" s="5"/>
     </row>
     <row r="189" spans="1:27">
       <c r="B189" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C189" s="10"/>
-      <c r="D189" s="10"/>
-      <c r="E189" s="10"/>
-      <c r="F189" s="10"/>
-      <c r="G189" s="10"/>
-      <c r="H189" s="10"/>
       <c r="I189" s="5"/>
     </row>
     <row r="190" spans="1:27">
       <c r="B190" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C190" s="10"/>
-      <c r="D190" s="10"/>
-      <c r="E190" s="10"/>
-      <c r="F190" s="10"/>
-      <c r="G190" s="10"/>
-      <c r="H190" s="10"/>
       <c r="I190" s="5"/>
     </row>
     <row r="191" spans="1:27">
       <c r="B191" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C191" s="10"/>
-      <c r="D191" s="10"/>
-      <c r="E191" s="10"/>
-      <c r="F191" s="10"/>
-      <c r="G191" s="10"/>
-      <c r="H191" s="10"/>
       <c r="I191" s="5"/>
     </row>
     <row r="192" spans="1:27">
       <c r="B192" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C192" s="10"/>
-      <c r="D192" s="10"/>
-      <c r="E192" s="10"/>
-      <c r="F192" s="10"/>
-      <c r="G192" s="10"/>
-      <c r="H192" s="10"/>
       <c r="I192" s="5"/>
     </row>
     <row r="193" spans="2:9">
       <c r="B193" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C193" s="10"/>
-      <c r="D193" s="10"/>
-      <c r="E193" s="10"/>
-      <c r="F193" s="10"/>
-      <c r="G193" s="10"/>
-      <c r="H193" s="10"/>
       <c r="I193" s="5"/>
     </row>
     <row r="194" spans="2:9">
       <c r="B194" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C194" s="10"/>
-      <c r="D194" s="10"/>
-      <c r="E194" s="10"/>
-      <c r="F194" s="10"/>
-      <c r="G194" s="10"/>
-      <c r="H194" s="10"/>
       <c r="I194" s="5"/>
     </row>
     <row r="195" spans="2:9">
       <c r="B195" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C195" s="10"/>
-      <c r="D195" s="10"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="10"/>
-      <c r="G195" s="10"/>
-      <c r="H195" s="10"/>
       <c r="I195" s="5"/>
     </row>
     <row r="196" spans="2:9">
       <c r="B196" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C196" s="10"/>
-      <c r="D196" s="10"/>
-      <c r="E196" s="10"/>
-      <c r="F196" s="10"/>
-      <c r="G196" s="10"/>
-      <c r="H196" s="10"/>
       <c r="I196" s="5"/>
     </row>
     <row r="197" spans="2:9">
       <c r="B197" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C197" s="10"/>
-      <c r="D197" s="10"/>
-      <c r="E197" s="10"/>
-      <c r="F197" s="10"/>
-      <c r="G197" s="10"/>
-      <c r="H197" s="10"/>
       <c r="I197" s="5"/>
     </row>
     <row r="198" spans="2:9">
       <c r="B198" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C198" s="10"/>
-      <c r="D198" s="10"/>
-      <c r="E198" s="10"/>
-      <c r="F198" s="10"/>
-      <c r="G198" s="10"/>
-      <c r="H198" s="10"/>
       <c r="I198" s="5"/>
     </row>
     <row r="199" spans="2:9">
       <c r="B199" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C199" s="10"/>
-      <c r="D199" s="10"/>
-      <c r="E199" s="10"/>
-      <c r="F199" s="10"/>
-      <c r="G199" s="10"/>
-      <c r="H199" s="10"/>
       <c r="I199" s="5"/>
     </row>
     <row r="200" spans="2:9">
       <c r="B200" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C200" s="10"/>
-      <c r="D200" s="10"/>
-      <c r="E200" s="10"/>
-      <c r="F200" s="10"/>
-      <c r="G200" s="10"/>
-      <c r="H200" s="10"/>
       <c r="I200" s="5"/>
     </row>
     <row r="201" spans="2:9">
       <c r="B201" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C201" s="10"/>
-      <c r="D201" s="10"/>
-      <c r="E201" s="10"/>
-      <c r="F201" s="10"/>
-      <c r="G201" s="10"/>
-      <c r="H201" s="10"/>
       <c r="I201" s="5"/>
     </row>
     <row r="202" spans="2:9">
       <c r="B202" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C202" s="10"/>
-      <c r="D202" s="10"/>
-      <c r="E202" s="10"/>
-      <c r="F202" s="10"/>
-      <c r="G202" s="10"/>
-      <c r="H202" s="10"/>
       <c r="I202" s="5"/>
     </row>
     <row r="203" spans="2:9">
       <c r="B203" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C203" s="10"/>
-      <c r="D203" s="10"/>
-      <c r="E203" s="10"/>
-      <c r="F203" s="10"/>
-      <c r="G203" s="10"/>
-      <c r="H203" s="10"/>
       <c r="I203" s="5"/>
     </row>
     <row r="204" spans="2:9">
       <c r="B204" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C204" s="10"/>
-      <c r="D204" s="10"/>
-      <c r="E204" s="10"/>
-      <c r="F204" s="10"/>
-      <c r="G204" s="10"/>
-      <c r="H204" s="10"/>
       <c r="I204" s="5"/>
     </row>
     <row r="205" spans="2:9">
       <c r="B205" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C205" s="10"/>
-      <c r="D205" s="10"/>
-      <c r="E205" s="10"/>
-      <c r="F205" s="10"/>
-      <c r="G205" s="10"/>
-      <c r="H205" s="10"/>
       <c r="I205" s="5"/>
     </row>
     <row r="206" spans="2:9">
       <c r="B206" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C206" s="10"/>
-      <c r="D206" s="10"/>
-      <c r="E206" s="10"/>
-      <c r="F206" s="10"/>
-      <c r="G206" s="10"/>
-      <c r="H206" s="10"/>
       <c r="I206" s="5"/>
     </row>
     <row r="207" spans="2:9">
       <c r="B207" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C207" s="10"/>
-      <c r="D207" s="10"/>
-      <c r="E207" s="10"/>
-      <c r="F207" s="10"/>
-      <c r="G207" s="10"/>
-      <c r="H207" s="10"/>
       <c r="I207" s="5"/>
     </row>
     <row r="208" spans="2:9">
       <c r="B208" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C208" s="10"/>
-      <c r="D208" s="10"/>
-      <c r="E208" s="10"/>
-      <c r="F208" s="10"/>
-      <c r="G208" s="10"/>
-      <c r="H208" s="10"/>
       <c r="I208" s="5"/>
     </row>
     <row r="209" spans="2:9">
       <c r="B209" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C209" s="10"/>
-      <c r="D209" s="10"/>
-      <c r="E209" s="10"/>
-      <c r="F209" s="10"/>
-      <c r="G209" s="10"/>
-      <c r="H209" s="10"/>
       <c r="I209" s="5"/>
     </row>
     <row r="210" spans="2:9">
       <c r="B210" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C210" s="10"/>
-      <c r="D210" s="10"/>
-      <c r="E210" s="10"/>
-      <c r="F210" s="10"/>
-      <c r="G210" s="10"/>
-      <c r="H210" s="10"/>
       <c r="I210" s="5"/>
     </row>
     <row r="211" spans="2:9">
       <c r="B211" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C211" s="10"/>
-      <c r="D211" s="10"/>
-      <c r="E211" s="10"/>
-      <c r="F211" s="10"/>
-      <c r="G211" s="10"/>
-      <c r="H211" s="10"/>
       <c r="I211" s="5"/>
     </row>
     <row r="212" spans="2:9">
       <c r="B212" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C212" s="10"/>
-      <c r="D212" s="10"/>
-      <c r="E212" s="10"/>
-      <c r="F212" s="10"/>
-      <c r="G212" s="10"/>
-      <c r="H212" s="10"/>
       <c r="I212" s="5"/>
     </row>
     <row r="213" spans="2:9">
       <c r="B213" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C213" s="10"/>
-      <c r="D213" s="10"/>
-      <c r="E213" s="10"/>
-      <c r="F213" s="10"/>
-      <c r="G213" s="10"/>
-      <c r="H213" s="10"/>
       <c r="I213" s="5"/>
     </row>
     <row r="214" spans="2:9">
       <c r="B214" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C214" s="10"/>
-      <c r="D214" s="10"/>
-      <c r="E214" s="10"/>
-      <c r="F214" s="10"/>
-      <c r="G214" s="10"/>
-      <c r="H214" s="10"/>
       <c r="I214" s="5"/>
     </row>
     <row r="215" spans="2:9">
       <c r="B215" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C215" s="10"/>
-      <c r="D215" s="10"/>
-      <c r="E215" s="10"/>
-      <c r="F215" s="10"/>
-      <c r="G215" s="10"/>
-      <c r="H215" s="10"/>
       <c r="I215" s="5"/>
     </row>
     <row r="216" spans="2:9">
       <c r="B216" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C216" s="10"/>
-      <c r="D216" s="10"/>
-      <c r="E216" s="10"/>
-      <c r="F216" s="10"/>
-      <c r="G216" s="10"/>
-      <c r="H216" s="10"/>
       <c r="I216" s="5"/>
     </row>
     <row r="217" spans="2:9">
       <c r="B217" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C217" s="10"/>
-      <c r="D217" s="10"/>
-      <c r="E217" s="10"/>
-      <c r="F217" s="10"/>
-      <c r="G217" s="10"/>
-      <c r="H217" s="10"/>
       <c r="I217" s="5"/>
     </row>
     <row r="218" spans="2:9">
       <c r="B218" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C218" s="10"/>
-      <c r="D218" s="10"/>
-      <c r="E218" s="10"/>
-      <c r="F218" s="10"/>
-      <c r="G218" s="10"/>
-      <c r="H218" s="10"/>
       <c r="I218" s="5"/>
     </row>
     <row r="219" spans="2:9">
       <c r="B219" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C219" s="10"/>
-      <c r="D219" s="10"/>
-      <c r="E219" s="10"/>
-      <c r="F219" s="10"/>
-      <c r="G219" s="10"/>
-      <c r="H219" s="10"/>
       <c r="I219" s="5"/>
     </row>
     <row r="220" spans="2:9">
       <c r="B220" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C220" s="10"/>
-      <c r="D220" s="10"/>
-      <c r="E220" s="10"/>
-      <c r="F220" s="10"/>
-      <c r="G220" s="10"/>
-      <c r="H220" s="10"/>
       <c r="I220" s="5"/>
     </row>
     <row r="221" spans="2:9">
       <c r="B221" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C221" s="10"/>
-      <c r="D221" s="10"/>
-      <c r="E221" s="10"/>
-      <c r="F221" s="10"/>
-      <c r="G221" s="10"/>
-      <c r="H221" s="10"/>
       <c r="I221" s="5"/>
     </row>
     <row r="222" spans="2:9">
       <c r="B222" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C222" s="10"/>
-      <c r="D222" s="10"/>
-      <c r="E222" s="10"/>
-      <c r="F222" s="10"/>
-      <c r="G222" s="10"/>
-      <c r="H222" s="10"/>
       <c r="I222" s="5"/>
     </row>
     <row r="223" spans="2:9">
       <c r="B223" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C223" s="10"/>
-      <c r="D223" s="10"/>
-      <c r="E223" s="10"/>
-      <c r="F223" s="10"/>
-      <c r="G223" s="10"/>
-      <c r="H223" s="10"/>
       <c r="I223" s="5"/>
     </row>
     <row r="224" spans="2:9">
       <c r="B224" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C224" s="10"/>
-      <c r="D224" s="10"/>
-      <c r="E224" s="10"/>
-      <c r="F224" s="10"/>
-      <c r="G224" s="10"/>
-      <c r="H224" s="10"/>
       <c r="I224" s="5"/>
     </row>
     <row r="225" spans="2:9">
       <c r="B225" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C225" s="10"/>
-      <c r="D225" s="10"/>
-      <c r="E225" s="10"/>
-      <c r="F225" s="10"/>
-      <c r="G225" s="10"/>
-      <c r="H225" s="10"/>
       <c r="I225" s="5"/>
     </row>
     <row r="226" spans="2:9">
       <c r="B226" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C226" s="10"/>
-      <c r="D226" s="10"/>
-      <c r="E226" s="10"/>
-      <c r="F226" s="10"/>
-      <c r="G226" s="10"/>
-      <c r="H226" s="10"/>
       <c r="I226" s="5"/>
     </row>
     <row r="227" spans="2:9">
       <c r="B227" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C227" s="10"/>
-      <c r="D227" s="10"/>
-      <c r="E227" s="10"/>
-      <c r="F227" s="10"/>
-      <c r="G227" s="10"/>
-      <c r="H227" s="10"/>
       <c r="I227" s="5"/>
     </row>
     <row r="228" spans="2:9">
       <c r="B228" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C228" s="10"/>
-      <c r="D228" s="10"/>
-      <c r="E228" s="10"/>
-      <c r="F228" s="10"/>
-      <c r="G228" s="10"/>
-      <c r="H228" s="10"/>
       <c r="I228" s="5"/>
     </row>
     <row r="229" spans="2:9">
       <c r="B229" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C229" s="10"/>
-      <c r="D229" s="10"/>
-      <c r="E229" s="10"/>
-      <c r="F229" s="10"/>
-      <c r="G229" s="10"/>
-      <c r="H229" s="10"/>
       <c r="I229" s="5"/>
     </row>
     <row r="230" spans="2:9">
       <c r="B230" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C230" s="10"/>
-      <c r="D230" s="10"/>
-      <c r="E230" s="10"/>
-      <c r="F230" s="10"/>
-      <c r="G230" s="10"/>
-      <c r="H230" s="10"/>
       <c r="I230" s="5"/>
     </row>
     <row r="231" spans="2:9">
       <c r="B231" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C231" s="10"/>
-      <c r="D231" s="10"/>
-      <c r="E231" s="10"/>
-      <c r="F231" s="10"/>
-      <c r="G231" s="10"/>
-      <c r="H231" s="10"/>
       <c r="I231" s="5"/>
     </row>
     <row r="232" spans="2:9">
       <c r="B232" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C232" s="10"/>
-      <c r="D232" s="10"/>
-      <c r="E232" s="10"/>
-      <c r="F232" s="10"/>
-      <c r="G232" s="10"/>
-      <c r="H232" s="10"/>
       <c r="I232" s="5"/>
     </row>
     <row r="233" spans="2:9">
       <c r="B233" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C233" s="10"/>
-      <c r="D233" s="10"/>
-      <c r="E233" s="10"/>
-      <c r="F233" s="10"/>
-      <c r="G233" s="10"/>
-      <c r="H233" s="10"/>
       <c r="I233" s="5"/>
     </row>
     <row r="234" spans="2:9">
       <c r="B234" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C234" s="10"/>
-      <c r="D234" s="10"/>
-      <c r="E234" s="10"/>
-      <c r="F234" s="10"/>
-      <c r="G234" s="10"/>
-      <c r="H234" s="10"/>
       <c r="I234" s="5"/>
     </row>
     <row r="235" spans="2:9">
       <c r="B235" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C235" s="10"/>
-      <c r="D235" s="10"/>
-      <c r="E235" s="10"/>
-      <c r="F235" s="10"/>
-      <c r="G235" s="10"/>
-      <c r="H235" s="10"/>
       <c r="I235" s="5"/>
     </row>
     <row r="236" spans="2:9">
       <c r="B236" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C236" s="10"/>
-      <c r="D236" s="10"/>
-      <c r="E236" s="10"/>
-      <c r="F236" s="10"/>
-      <c r="G236" s="10"/>
-      <c r="H236" s="10"/>
       <c r="I236" s="5"/>
     </row>
     <row r="237" spans="2:9">
       <c r="B237" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C237" s="10"/>
-      <c r="D237" s="10"/>
-      <c r="E237" s="10"/>
-      <c r="F237" s="10"/>
-      <c r="G237" s="10"/>
-      <c r="H237" s="10"/>
       <c r="I237" s="5"/>
     </row>
     <row r="238" spans="2:9">
       <c r="B238" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C238" s="10"/>
-      <c r="D238" s="10"/>
-      <c r="E238" s="10"/>
-      <c r="F238" s="10"/>
-      <c r="G238" s="10"/>
-      <c r="H238" s="10"/>
       <c r="I238" s="5"/>
     </row>
     <row r="239" spans="2:9">
       <c r="B239" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C239" s="10"/>
-      <c r="D239" s="10"/>
-      <c r="E239" s="10"/>
-      <c r="F239" s="10"/>
-      <c r="G239" s="10"/>
-      <c r="H239" s="10"/>
       <c r="I239" s="5"/>
     </row>
     <row r="240" spans="2:9">
       <c r="B240" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C240" s="10"/>
-      <c r="D240" s="10"/>
-      <c r="E240" s="10"/>
-      <c r="F240" s="10"/>
-      <c r="G240" s="10"/>
-      <c r="H240" s="10"/>
       <c r="I240" s="5"/>
     </row>
     <row r="241" spans="2:9">
       <c r="B241" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C241" s="10"/>
-      <c r="D241" s="10"/>
-      <c r="E241" s="10"/>
-      <c r="F241" s="10"/>
-      <c r="G241" s="10"/>
-      <c r="H241" s="10"/>
       <c r="I241" s="5"/>
     </row>
     <row r="242" spans="2:9">
       <c r="B242" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C242" s="10"/>
-      <c r="D242" s="10"/>
-      <c r="E242" s="10"/>
-      <c r="F242" s="10"/>
-      <c r="G242" s="10"/>
-      <c r="H242" s="10"/>
       <c r="I242" s="5"/>
     </row>
     <row r="243" spans="2:9">
       <c r="B243" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C243" s="10"/>
-      <c r="D243" s="10"/>
-      <c r="E243" s="10"/>
-      <c r="F243" s="10"/>
-      <c r="G243" s="10"/>
-      <c r="H243" s="10"/>
       <c r="I243" s="5"/>
     </row>
     <row r="244" spans="2:9">
       <c r="B244" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C244" s="10"/>
-      <c r="D244" s="10"/>
-      <c r="E244" s="10"/>
-      <c r="F244" s="10"/>
-      <c r="G244" s="10"/>
-      <c r="H244" s="10"/>
       <c r="I244" s="5"/>
     </row>
     <row r="245" spans="2:9">
       <c r="B245" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C245" s="10"/>
-      <c r="D245" s="10"/>
-      <c r="E245" s="10"/>
-      <c r="F245" s="10"/>
-      <c r="G245" s="10"/>
-      <c r="H245" s="10"/>
       <c r="I245" s="5"/>
     </row>
     <row r="246" spans="2:9">
       <c r="B246" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C246" s="10"/>
-      <c r="D246" s="10"/>
-      <c r="E246" s="10"/>
-      <c r="F246" s="10"/>
-      <c r="G246" s="10"/>
-      <c r="H246" s="10"/>
       <c r="I246" s="5"/>
     </row>
     <row r="247" spans="2:9">
       <c r="B247" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C247" s="10"/>
-      <c r="D247" s="10"/>
-      <c r="E247" s="10"/>
-      <c r="F247" s="10"/>
-      <c r="G247" s="10"/>
-      <c r="H247" s="10"/>
       <c r="I247" s="5"/>
     </row>
     <row r="248" spans="2:9">
       <c r="B248" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C248" s="10"/>
-      <c r="D248" s="10"/>
-      <c r="E248" s="10"/>
-      <c r="F248" s="10"/>
-      <c r="G248" s="10"/>
-      <c r="H248" s="10"/>
       <c r="I248" s="5"/>
     </row>
     <row r="249" spans="2:9">
       <c r="B249" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C249" s="10"/>
-      <c r="D249" s="10"/>
-      <c r="E249" s="10"/>
-      <c r="F249" s="10"/>
-      <c r="G249" s="10"/>
-      <c r="H249" s="10"/>
       <c r="I249" s="5"/>
     </row>
     <row r="250" spans="2:9">
       <c r="B250" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C250" s="10"/>
-      <c r="D250" s="10"/>
-      <c r="E250" s="10"/>
-      <c r="F250" s="10"/>
-      <c r="G250" s="10"/>
-      <c r="H250" s="10"/>
       <c r="I250" s="5"/>
     </row>
     <row r="251" spans="2:9">
       <c r="B251" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C251" s="10"/>
-      <c r="D251" s="10"/>
-      <c r="E251" s="10"/>
-      <c r="F251" s="10"/>
-      <c r="G251" s="10"/>
-      <c r="H251" s="10"/>
       <c r="I251" s="5"/>
     </row>
     <row r="252" spans="2:9">
       <c r="B252" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C252" s="10"/>
-      <c r="D252" s="10"/>
-      <c r="E252" s="10"/>
-      <c r="F252" s="10"/>
-      <c r="G252" s="10"/>
-      <c r="H252" s="10"/>
       <c r="I252" s="5"/>
     </row>
     <row r="253" spans="2:9">
       <c r="B253" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C253" s="10"/>
-      <c r="D253" s="10"/>
-      <c r="E253" s="10"/>
-      <c r="F253" s="10"/>
-      <c r="G253" s="10"/>
-      <c r="H253" s="10"/>
       <c r="I253" s="5"/>
     </row>
     <row r="254" spans="2:9">
       <c r="B254" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C254" s="10"/>
-      <c r="D254" s="10"/>
-      <c r="E254" s="10"/>
-      <c r="F254" s="10"/>
-      <c r="G254" s="10"/>
-      <c r="H254" s="10"/>
       <c r="I254" s="5"/>
     </row>
     <row r="255" spans="2:9">
       <c r="B255" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C255" s="10"/>
-      <c r="D255" s="10"/>
-      <c r="E255" s="10"/>
-      <c r="F255" s="10"/>
-      <c r="G255" s="10"/>
-      <c r="H255" s="10"/>
       <c r="I255" s="5"/>
     </row>
     <row r="256" spans="2:9">
       <c r="B256" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C256" s="10"/>
-      <c r="D256" s="10"/>
-      <c r="E256" s="10"/>
-      <c r="F256" s="10"/>
-      <c r="G256" s="10"/>
-      <c r="H256" s="10"/>
       <c r="I256" s="5"/>
     </row>
     <row r="257" spans="2:12">
       <c r="B257" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C257" s="10"/>
-      <c r="D257" s="10"/>
-      <c r="E257" s="10"/>
-      <c r="F257" s="10"/>
-      <c r="G257" s="10"/>
-      <c r="H257" s="10"/>
       <c r="I257" s="5"/>
     </row>
     <row r="258" spans="2:12">
       <c r="B258" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C258" s="10"/>
-      <c r="D258" s="10"/>
-      <c r="E258" s="10"/>
-      <c r="F258" s="10"/>
-      <c r="G258" s="10"/>
-      <c r="H258" s="10"/>
       <c r="I258" s="5"/>
     </row>
     <row r="259" spans="2:12">
       <c r="B259" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C259" s="10"/>
-      <c r="D259" s="10"/>
-      <c r="E259" s="10"/>
-      <c r="F259" s="10"/>
-      <c r="G259" s="10"/>
-      <c r="H259" s="10"/>
       <c r="I259" s="5"/>
     </row>
     <row r="260" spans="2:12">
       <c r="B260" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C260" s="10"/>
-      <c r="D260" s="10"/>
-      <c r="E260" s="10"/>
-      <c r="F260" s="10"/>
-      <c r="G260" s="10"/>
-      <c r="H260" s="10"/>
       <c r="I260" s="5"/>
     </row>
     <row r="261" spans="2:12">
       <c r="B261" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C261" s="10"/>
-      <c r="D261" s="10"/>
-      <c r="E261" s="10"/>
-      <c r="F261" s="10"/>
-      <c r="G261" s="10"/>
-      <c r="H261" s="10"/>
       <c r="I261" s="5"/>
     </row>
     <row r="262" spans="2:12">
       <c r="B262" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C262" s="10"/>
-      <c r="D262" s="10"/>
-      <c r="E262" s="10"/>
-      <c r="F262" s="10"/>
-      <c r="G262" s="10"/>
-      <c r="H262" s="10"/>
       <c r="I262" s="5"/>
     </row>
     <row r="263" spans="2:12">
       <c r="B263" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C263" s="10"/>
-      <c r="D263" s="10"/>
-      <c r="E263" s="10"/>
-      <c r="F263" s="10"/>
-      <c r="G263" s="10"/>
-      <c r="H263" s="10"/>
       <c r="I263" s="5"/>
     </row>
     <row r="264" spans="2:12">
       <c r="B264" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C264" s="10"/>
-      <c r="D264" s="10"/>
-      <c r="E264" s="10"/>
-      <c r="F264" s="10"/>
-      <c r="G264" s="10"/>
-      <c r="H264" s="10"/>
       <c r="I264" s="5"/>
     </row>
     <row r="265" spans="2:12">
       <c r="B265" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C265" s="10"/>
-      <c r="D265" s="10"/>
-      <c r="E265" s="10"/>
-      <c r="F265" s="10"/>
-      <c r="G265" s="10"/>
-      <c r="H265" s="10"/>
       <c r="I265" s="5"/>
     </row>
     <row r="266" spans="2:12">
       <c r="B266" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C266" s="10"/>
-      <c r="D266" s="10"/>
-      <c r="E266" s="10"/>
-      <c r="F266" s="10"/>
-      <c r="G266" s="10"/>
-      <c r="H266" s="10"/>
       <c r="I266" s="5"/>
     </row>
     <row r="267" spans="2:12">
@@ -5850,7 +4086,7 @@
       <c r="I267" s="9"/>
     </row>
     <row r="270" spans="2:12">
-      <c r="B270" s="15" t="s">
+      <c r="B270" s="14" t="s">
         <v>123</v>
       </c>
       <c r="C270" s="2"/>
@@ -5866,327 +4102,102 @@
     </row>
     <row r="271" spans="2:12">
       <c r="B271" s="4"/>
-      <c r="C271" s="10"/>
-      <c r="D271" s="10"/>
-      <c r="E271" s="10"/>
-      <c r="F271" s="10"/>
-      <c r="G271" s="10"/>
-      <c r="H271" s="10"/>
-      <c r="I271" s="10"/>
-      <c r="J271" s="10"/>
-      <c r="K271" s="10"/>
       <c r="L271" s="5"/>
     </row>
     <row r="272" spans="2:12">
       <c r="B272" s="4"/>
-      <c r="C272" s="10"/>
-      <c r="D272" s="10"/>
-      <c r="E272" s="10"/>
-      <c r="F272" s="10"/>
-      <c r="G272" s="10"/>
-      <c r="H272" s="10"/>
-      <c r="I272" s="10"/>
-      <c r="J272" s="10"/>
-      <c r="K272" s="10"/>
       <c r="L272" s="5"/>
     </row>
     <row r="273" spans="2:12">
       <c r="B273" s="4"/>
-      <c r="C273" s="10"/>
-      <c r="D273" s="10"/>
-      <c r="E273" s="10"/>
-      <c r="F273" s="10"/>
-      <c r="G273" s="10"/>
-      <c r="H273" s="10"/>
-      <c r="I273" s="10"/>
-      <c r="J273" s="10"/>
-      <c r="K273" s="10"/>
       <c r="L273" s="5"/>
     </row>
     <row r="274" spans="2:12">
       <c r="B274" s="4"/>
-      <c r="C274" s="10"/>
-      <c r="D274" s="10"/>
-      <c r="E274" s="10"/>
-      <c r="F274" s="10"/>
-      <c r="G274" s="10"/>
-      <c r="H274" s="10"/>
-      <c r="I274" s="10"/>
-      <c r="J274" s="10"/>
-      <c r="K274" s="10"/>
       <c r="L274" s="5"/>
     </row>
     <row r="275" spans="2:12">
       <c r="B275" s="4"/>
-      <c r="C275" s="10"/>
-      <c r="D275" s="10"/>
-      <c r="E275" s="10"/>
-      <c r="F275" s="10"/>
-      <c r="G275" s="10"/>
-      <c r="H275" s="10"/>
-      <c r="I275" s="10"/>
-      <c r="J275" s="10"/>
-      <c r="K275" s="10"/>
       <c r="L275" s="5"/>
     </row>
     <row r="276" spans="2:12">
       <c r="B276" s="4"/>
-      <c r="C276" s="10"/>
-      <c r="D276" s="10"/>
-      <c r="E276" s="10"/>
-      <c r="F276" s="10"/>
-      <c r="G276" s="10"/>
-      <c r="H276" s="10"/>
-      <c r="I276" s="10"/>
-      <c r="J276" s="10"/>
-      <c r="K276" s="10"/>
       <c r="L276" s="5"/>
     </row>
     <row r="277" spans="2:12">
       <c r="B277" s="4"/>
-      <c r="C277" s="10"/>
-      <c r="D277" s="10"/>
-      <c r="E277" s="10"/>
-      <c r="F277" s="10"/>
-      <c r="G277" s="10"/>
-      <c r="H277" s="10"/>
-      <c r="I277" s="10"/>
-      <c r="J277" s="10"/>
-      <c r="K277" s="10"/>
       <c r="L277" s="5"/>
     </row>
     <row r="278" spans="2:12">
       <c r="B278" s="4"/>
-      <c r="C278" s="10"/>
-      <c r="D278" s="10"/>
-      <c r="E278" s="10"/>
-      <c r="F278" s="10"/>
-      <c r="G278" s="10"/>
-      <c r="H278" s="10"/>
-      <c r="I278" s="10"/>
-      <c r="J278" s="10"/>
-      <c r="K278" s="10"/>
       <c r="L278" s="5"/>
     </row>
     <row r="279" spans="2:12">
       <c r="B279" s="4"/>
-      <c r="C279" s="10"/>
-      <c r="D279" s="10"/>
-      <c r="E279" s="10"/>
-      <c r="F279" s="10"/>
-      <c r="G279" s="10"/>
-      <c r="H279" s="10"/>
-      <c r="I279" s="10"/>
-      <c r="J279" s="10"/>
-      <c r="K279" s="10"/>
       <c r="L279" s="5"/>
     </row>
     <row r="280" spans="2:12">
       <c r="B280" s="4"/>
-      <c r="C280" s="10"/>
-      <c r="D280" s="10"/>
-      <c r="E280" s="10"/>
-      <c r="F280" s="10"/>
-      <c r="G280" s="10"/>
-      <c r="H280" s="10"/>
-      <c r="I280" s="10"/>
-      <c r="J280" s="10"/>
-      <c r="K280" s="10"/>
       <c r="L280" s="5"/>
     </row>
     <row r="281" spans="2:12">
       <c r="B281" s="4"/>
-      <c r="C281" s="10"/>
-      <c r="D281" s="10"/>
-      <c r="E281" s="10"/>
-      <c r="F281" s="10"/>
-      <c r="G281" s="10"/>
-      <c r="H281" s="10"/>
-      <c r="I281" s="10"/>
-      <c r="J281" s="10"/>
-      <c r="K281" s="10"/>
       <c r="L281" s="5"/>
     </row>
     <row r="282" spans="2:12">
       <c r="B282" s="4"/>
-      <c r="C282" s="10"/>
-      <c r="D282" s="10"/>
-      <c r="E282" s="10"/>
-      <c r="F282" s="10"/>
-      <c r="G282" s="10"/>
-      <c r="H282" s="10"/>
-      <c r="I282" s="10"/>
-      <c r="J282" s="10"/>
-      <c r="K282" s="10"/>
       <c r="L282" s="5"/>
     </row>
     <row r="283" spans="2:12">
       <c r="B283" s="4"/>
-      <c r="C283" s="10"/>
-      <c r="D283" s="10"/>
-      <c r="E283" s="10"/>
-      <c r="F283" s="10"/>
-      <c r="G283" s="10"/>
-      <c r="H283" s="10"/>
-      <c r="I283" s="10"/>
-      <c r="J283" s="10"/>
-      <c r="K283" s="10"/>
       <c r="L283" s="5"/>
     </row>
     <row r="284" spans="2:12">
       <c r="B284" s="4"/>
-      <c r="C284" s="10"/>
-      <c r="D284" s="10"/>
-      <c r="E284" s="10"/>
-      <c r="F284" s="10"/>
-      <c r="G284" s="10"/>
-      <c r="H284" s="10"/>
-      <c r="I284" s="10"/>
-      <c r="J284" s="10"/>
-      <c r="K284" s="10"/>
       <c r="L284" s="5"/>
     </row>
     <row r="285" spans="2:12">
       <c r="B285" s="4"/>
-      <c r="C285" s="10"/>
-      <c r="D285" s="10"/>
-      <c r="E285" s="10"/>
-      <c r="F285" s="10"/>
-      <c r="G285" s="10"/>
-      <c r="H285" s="10"/>
-      <c r="I285" s="10"/>
-      <c r="J285" s="10"/>
-      <c r="K285" s="10"/>
       <c r="L285" s="5"/>
     </row>
     <row r="286" spans="2:12">
       <c r="B286" s="4"/>
-      <c r="C286" s="10"/>
-      <c r="D286" s="10"/>
-      <c r="E286" s="10"/>
-      <c r="F286" s="10"/>
-      <c r="G286" s="10"/>
-      <c r="H286" s="10"/>
-      <c r="I286" s="10"/>
-      <c r="J286" s="10"/>
-      <c r="K286" s="10"/>
       <c r="L286" s="5"/>
     </row>
     <row r="287" spans="2:12">
       <c r="B287" s="4"/>
-      <c r="C287" s="10"/>
-      <c r="D287" s="10"/>
-      <c r="E287" s="10"/>
-      <c r="F287" s="10"/>
-      <c r="G287" s="10"/>
-      <c r="H287" s="10"/>
-      <c r="I287" s="10"/>
-      <c r="J287" s="10"/>
-      <c r="K287" s="10"/>
       <c r="L287" s="5"/>
     </row>
     <row r="288" spans="2:12">
       <c r="B288" s="4"/>
-      <c r="C288" s="10"/>
-      <c r="D288" s="10"/>
-      <c r="E288" s="10"/>
-      <c r="F288" s="10"/>
-      <c r="G288" s="10"/>
-      <c r="H288" s="10"/>
-      <c r="I288" s="10"/>
-      <c r="J288" s="10"/>
-      <c r="K288" s="10"/>
       <c r="L288" s="5"/>
     </row>
     <row r="289" spans="2:12">
       <c r="B289" s="4"/>
-      <c r="C289" s="10"/>
-      <c r="D289" s="10"/>
-      <c r="E289" s="10"/>
-      <c r="F289" s="10"/>
-      <c r="G289" s="10"/>
-      <c r="H289" s="10"/>
-      <c r="I289" s="10"/>
-      <c r="J289" s="10"/>
-      <c r="K289" s="10"/>
       <c r="L289" s="5"/>
     </row>
     <row r="290" spans="2:12">
       <c r="B290" s="4"/>
-      <c r="C290" s="10"/>
-      <c r="D290" s="10"/>
-      <c r="E290" s="10"/>
-      <c r="F290" s="10"/>
-      <c r="G290" s="10"/>
-      <c r="H290" s="10"/>
-      <c r="I290" s="10"/>
-      <c r="J290" s="10"/>
-      <c r="K290" s="10"/>
       <c r="L290" s="5"/>
     </row>
     <row r="291" spans="2:12">
       <c r="B291" s="4"/>
-      <c r="C291" s="10"/>
-      <c r="D291" s="10"/>
-      <c r="E291" s="10"/>
-      <c r="F291" s="10"/>
-      <c r="G291" s="10"/>
-      <c r="H291" s="10"/>
-      <c r="I291" s="10"/>
-      <c r="J291" s="10"/>
-      <c r="K291" s="10"/>
       <c r="L291" s="5"/>
     </row>
     <row r="292" spans="2:12">
       <c r="B292" s="4"/>
-      <c r="C292" s="10"/>
-      <c r="D292" s="10"/>
-      <c r="E292" s="10"/>
-      <c r="F292" s="10"/>
-      <c r="G292" s="10"/>
-      <c r="H292" s="10"/>
-      <c r="I292" s="10"/>
-      <c r="J292" s="10"/>
-      <c r="K292" s="10"/>
       <c r="L292" s="5"/>
     </row>
     <row r="293" spans="2:12">
       <c r="B293" s="4"/>
-      <c r="C293" s="10"/>
-      <c r="D293" s="10"/>
-      <c r="E293" s="10"/>
-      <c r="F293" s="10"/>
-      <c r="G293" s="10"/>
-      <c r="H293" s="10"/>
-      <c r="I293" s="10"/>
-      <c r="J293" s="10"/>
-      <c r="K293" s="10"/>
       <c r="L293" s="5"/>
     </row>
     <row r="294" spans="2:12">
       <c r="B294" s="4"/>
-      <c r="C294" s="10"/>
-      <c r="D294" s="10"/>
-      <c r="E294" s="10"/>
-      <c r="F294" s="10"/>
-      <c r="G294" s="10"/>
-      <c r="H294" s="10"/>
-      <c r="I294" s="10"/>
-      <c r="J294" s="10"/>
-      <c r="K294" s="10"/>
       <c r="L294" s="5"/>
     </row>
     <row r="295" spans="2:12">
       <c r="B295" s="4"/>
-      <c r="C295" s="10"/>
-      <c r="D295" s="10"/>
-      <c r="E295" s="10"/>
-      <c r="F295" s="10"/>
-      <c r="G295" s="10"/>
-      <c r="H295" s="10"/>
-      <c r="I295" s="10"/>
-      <c r="J295" s="10"/>
-      <c r="K295" s="10"/>
       <c r="L295" s="5"/>
     </row>
     <row r="296" spans="2:12">
@@ -6207,4 +4218,31 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58F20AD-B831-45D5-A9BB-1215DDB58F64}">
+  <dimension ref="B3:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>